--- a/docs/電腦繪圖國小高年級乙組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖國小高年級乙組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖國小高年級乙組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="215">
   <si>
     <t>序</t>
   </si>
@@ -48,427 +48,406 @@
     <t>電腦繪圖國小高年級乙組靜態類</t>
   </si>
   <si>
-    <t>大甲區日南國小</t>
-  </si>
-  <si>
-    <t>張家瑜</t>
-  </si>
-  <si>
-    <t>李仲岳</t>
+    <t>大安區大安國小</t>
+  </si>
+  <si>
+    <t>李伊雯</t>
+  </si>
+  <si>
+    <t>吳慧菁</t>
   </si>
   <si>
     <t>Windows 小畫家</t>
   </si>
   <si>
-    <t>xb33s7</t>
-  </si>
-  <si>
-    <t>cd31jk1</t>
-  </si>
-  <si>
-    <t>大安區大安國小</t>
-  </si>
-  <si>
-    <t>林致宏</t>
-  </si>
-  <si>
-    <t>吳慧菁</t>
-  </si>
-  <si>
-    <t>cdx39yg5</t>
-  </si>
-  <si>
-    <t>etv19dx5</t>
-  </si>
-  <si>
-    <t>林珮翎</t>
-  </si>
-  <si>
-    <t>dx34rs5</t>
-  </si>
-  <si>
-    <t>whp51pe8</t>
+    <t>sm37k5</t>
+  </si>
+  <si>
+    <t>h96n5</t>
+  </si>
+  <si>
+    <t>莊詠渝</t>
+  </si>
+  <si>
+    <t>my12jk5</t>
+  </si>
+  <si>
+    <t>fr23c4</t>
   </si>
   <si>
     <t>大安區海墘國小</t>
   </si>
   <si>
-    <t>余思穎</t>
-  </si>
-  <si>
-    <t>李佶原</t>
-  </si>
-  <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>dxb17an5</t>
-  </si>
-  <si>
-    <t>whp40r7</t>
-  </si>
-  <si>
-    <t>大肚區追分國小</t>
-  </si>
-  <si>
-    <t>陳佳妘</t>
-  </si>
-  <si>
-    <t>張永龍</t>
-  </si>
-  <si>
-    <t>jk96p7</t>
-  </si>
-  <si>
-    <t>r23f9</t>
-  </si>
-  <si>
-    <t>大肚區瑞峰國小</t>
-  </si>
-  <si>
-    <t>梁苓梅</t>
-  </si>
-  <si>
-    <t>莊啟宗</t>
-  </si>
-  <si>
-    <t>f76et5</t>
-  </si>
-  <si>
-    <t>kf92b1</t>
-  </si>
-  <si>
-    <t>大里區美群國小</t>
-  </si>
-  <si>
-    <t>賴靜慧</t>
-  </si>
-  <si>
-    <t>黃紹維</t>
-  </si>
-  <si>
-    <t>Krita 3.3.3</t>
-  </si>
-  <si>
-    <t>wh41sm1</t>
-  </si>
-  <si>
-    <t>g65n8</t>
-  </si>
-  <si>
-    <t>張筠晞</t>
-  </si>
-  <si>
-    <t>rs84et7</t>
-  </si>
-  <si>
-    <t>j58m9</t>
-  </si>
-  <si>
-    <t>大雅區上楓國小</t>
-  </si>
-  <si>
-    <t>羅浿尹</t>
-  </si>
-  <si>
-    <t>林宏憲</t>
-  </si>
-  <si>
-    <t>Gimp 2.8</t>
-  </si>
-  <si>
-    <t>bj60b8</t>
-  </si>
-  <si>
-    <t>tv11x4</t>
+    <t>林芷妤</t>
+  </si>
+  <si>
+    <t>李思賢</t>
+  </si>
+  <si>
+    <t>Krita 4.1.7</t>
+  </si>
+  <si>
+    <t>k73m7</t>
+  </si>
+  <si>
+    <t>nc43xb7</t>
+  </si>
+  <si>
+    <t>黃巧喬</t>
+  </si>
+  <si>
+    <t>anc22xb4</t>
+  </si>
+  <si>
+    <t>tv58wh1</t>
+  </si>
+  <si>
+    <t>大肚區永順國小</t>
+  </si>
+  <si>
+    <t>陳倍誼</t>
+  </si>
+  <si>
+    <t>許嘉芬</t>
+  </si>
+  <si>
+    <t>Gimp 2.10.8</t>
+  </si>
+  <si>
+    <t>dxb80k6</t>
+  </si>
+  <si>
+    <t>smy83yg2</t>
+  </si>
+  <si>
+    <t>謝苡宣</t>
+  </si>
+  <si>
+    <t>kf33yg1</t>
+  </si>
+  <si>
+    <t>jk33nc3</t>
   </si>
   <si>
     <t>大雅區陽明國小</t>
   </si>
   <si>
-    <t>王瑩靜</t>
+    <t>陳淇婕</t>
   </si>
   <si>
     <t>巫俐敏</t>
   </si>
   <si>
-    <t>dxb54an7</t>
-  </si>
-  <si>
-    <t>p8h2</t>
-  </si>
-  <si>
-    <t>太平區長億國小</t>
-  </si>
-  <si>
-    <t>陳婕瑀</t>
-  </si>
-  <si>
-    <t>謝東諭</t>
-  </si>
-  <si>
-    <t>w78w8</t>
-  </si>
-  <si>
-    <t>xb53my3</t>
-  </si>
-  <si>
-    <t>北屯區明道普霖斯頓小學</t>
-  </si>
-  <si>
-    <t>邱敏怡</t>
-  </si>
-  <si>
-    <t>劉禎</t>
-  </si>
-  <si>
-    <t>k3j3</t>
-  </si>
-  <si>
-    <t>sm48c4</t>
-  </si>
-  <si>
-    <t>張書淇</t>
-  </si>
-  <si>
-    <t>hp93m7</t>
-  </si>
-  <si>
-    <t>sm5k1</t>
-  </si>
-  <si>
-    <t>謝瑾萱</t>
-  </si>
-  <si>
-    <t>d97xb5</t>
-  </si>
-  <si>
-    <t>wh79cd6</t>
-  </si>
-  <si>
-    <t>胡毓晴</t>
-  </si>
-  <si>
-    <t>nc32sm3</t>
-  </si>
-  <si>
-    <t>jk38h4</t>
-  </si>
-  <si>
-    <t>北屯區陳平國小</t>
-  </si>
-  <si>
-    <t>楊絜茹</t>
-  </si>
-  <si>
-    <t>周冠廷</t>
-  </si>
-  <si>
-    <t>gw11cd2</t>
-  </si>
-  <si>
-    <t>a39cd4</t>
-  </si>
-  <si>
-    <t>林稚翔</t>
-  </si>
-  <si>
-    <t>王瓏真</t>
-  </si>
-  <si>
-    <t>p93nc3</t>
-  </si>
-  <si>
-    <t>bjk43w8</t>
-  </si>
-  <si>
-    <t>蔡炘芩</t>
-  </si>
-  <si>
-    <t>fr61e7</t>
-  </si>
-  <si>
-    <t>hp53t1</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>陳彥廷</t>
-  </si>
-  <si>
-    <t>蔡慧珍</t>
-  </si>
-  <si>
-    <t>Inkscape 0.92.2</t>
-  </si>
-  <si>
-    <t>g10gw7</t>
-  </si>
-  <si>
-    <t>jk71c8</t>
-  </si>
-  <si>
-    <t>魏亦渲</t>
-  </si>
-  <si>
-    <t>gwh74j6</t>
-  </si>
-  <si>
-    <t>yg86a2</t>
-  </si>
-  <si>
-    <t>柯恩慈</t>
-  </si>
-  <si>
-    <t>whp82et7</t>
-  </si>
-  <si>
-    <t>yg88f2</t>
-  </si>
-  <si>
-    <t>呂維軒</t>
-  </si>
-  <si>
-    <t>bj23gw3</t>
-  </si>
-  <si>
-    <t>t95x7</t>
-  </si>
-  <si>
-    <t>北區篤行國小</t>
-  </si>
-  <si>
-    <t>林志威</t>
-  </si>
-  <si>
-    <t>楊晴惠</t>
-  </si>
-  <si>
-    <t>d45dx3</t>
-  </si>
-  <si>
-    <t>gwh27jk6</t>
-  </si>
-  <si>
-    <t>外埔區外埔國小</t>
-  </si>
-  <si>
-    <t>陳思愉</t>
-  </si>
-  <si>
-    <t>陳文鴻</t>
-  </si>
-  <si>
-    <t>hp83xb6</t>
-  </si>
-  <si>
-    <t>f74b7</t>
-  </si>
-  <si>
-    <t>陳 女衣 瑾</t>
-  </si>
-  <si>
-    <t>et6w5</t>
-  </si>
-  <si>
-    <t>xb28et2</t>
-  </si>
-  <si>
-    <t>涂君綺</t>
-  </si>
-  <si>
-    <t>陳雅玲</t>
-  </si>
-  <si>
-    <t>bj83s5</t>
-  </si>
-  <si>
-    <t>frs4xb5</t>
+    <t>r57fr1</t>
+  </si>
+  <si>
+    <t>bj30my5</t>
+  </si>
+  <si>
+    <t>蔡安姝</t>
+  </si>
+  <si>
+    <t>pe13v5</t>
+  </si>
+  <si>
+    <t>tv44my7</t>
+  </si>
+  <si>
+    <t>吳曼丞</t>
+  </si>
+  <si>
+    <t>an29kf6</t>
+  </si>
+  <si>
+    <t>wh55bj1</t>
+  </si>
+  <si>
+    <t>石岡區石岡國小</t>
+  </si>
+  <si>
+    <t>蕭暄霓</t>
+  </si>
+  <si>
+    <t>洪宗岳</t>
+  </si>
+  <si>
+    <t>rsm32g4</t>
+  </si>
+  <si>
+    <t>kf32p2</t>
+  </si>
+  <si>
+    <t>后里區七星國小</t>
+  </si>
+  <si>
+    <t>傅巽穗</t>
+  </si>
+  <si>
+    <t>王女衣人</t>
+  </si>
+  <si>
+    <t>Windows 小畫家3D</t>
+  </si>
+  <si>
+    <t>nc94w4</t>
+  </si>
+  <si>
+    <t>s48s7</t>
+  </si>
+  <si>
+    <t>后里區月眉國小</t>
+  </si>
+  <si>
+    <t>陳予恩</t>
+  </si>
+  <si>
+    <t>趙姿婷</t>
+  </si>
+  <si>
+    <t>hpe12y4</t>
+  </si>
+  <si>
+    <t>v20k6</t>
+  </si>
+  <si>
+    <t>李虹誼</t>
+  </si>
+  <si>
+    <t>cdx86n2</t>
+  </si>
+  <si>
+    <t>gwh61k7</t>
+  </si>
+  <si>
+    <t>后里區育英國小</t>
+  </si>
+  <si>
+    <t>陳鈺婕</t>
+  </si>
+  <si>
+    <t>李君偉</t>
+  </si>
+  <si>
+    <t>c73sm7</t>
+  </si>
+  <si>
+    <t>fr75p2</t>
+  </si>
+  <si>
+    <t>王珮玟</t>
+  </si>
+  <si>
+    <t>b9hp1</t>
+  </si>
+  <si>
+    <t>bj61bj7</t>
+  </si>
+  <si>
+    <t>羅宜楨</t>
+  </si>
+  <si>
+    <t>林建良</t>
+  </si>
+  <si>
+    <t>xbj93w9</t>
+  </si>
+  <si>
+    <t>nc52an3</t>
+  </si>
+  <si>
+    <t>西屯區大仁國小</t>
+  </si>
+  <si>
+    <t>謝依恩</t>
+  </si>
+  <si>
+    <t>董建甫</t>
+  </si>
+  <si>
+    <t>p91rs1</t>
+  </si>
+  <si>
+    <t>et77wh9</t>
   </si>
   <si>
     <t>西屯區何厝國小</t>
   </si>
   <si>
-    <t>林玟萱</t>
+    <t>林美芸</t>
   </si>
   <si>
     <t>陳勝裕</t>
   </si>
   <si>
-    <t>v97d7</t>
-  </si>
-  <si>
-    <t>bj4r7</t>
-  </si>
-  <si>
-    <t>莊雅筑</t>
-  </si>
-  <si>
-    <t>g53jk7</t>
-  </si>
-  <si>
-    <t>wh6hp6</t>
+    <t>w48r8</t>
+  </si>
+  <si>
+    <t>sm45y3</t>
+  </si>
+  <si>
+    <t>瞿湘</t>
+  </si>
+  <si>
+    <t>g44jk4</t>
+  </si>
+  <si>
+    <t>dxb55n9</t>
   </si>
   <si>
     <t>西屯區東海國小</t>
   </si>
   <si>
-    <t>郭品妤</t>
-  </si>
-  <si>
-    <t>林益興</t>
-  </si>
-  <si>
-    <t>cd34s4</t>
-  </si>
-  <si>
-    <t>v72h8</t>
+    <t>郭育瑄</t>
+  </si>
+  <si>
+    <t>張凱棠</t>
+  </si>
+  <si>
+    <t>gw64j6</t>
+  </si>
+  <si>
+    <t>j36g4</t>
+  </si>
+  <si>
+    <t>西屯區重慶國小</t>
+  </si>
+  <si>
+    <t>林于瑄</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>pet2h4</t>
+  </si>
+  <si>
+    <t>x4f9</t>
   </si>
   <si>
     <t>西屯區泰安國小</t>
   </si>
   <si>
-    <t>洪嘉婉</t>
+    <t>廖雅晨</t>
   </si>
   <si>
     <t>吳家瑋</t>
   </si>
   <si>
-    <t>b72yg9</t>
-  </si>
-  <si>
-    <t>wh90j6</t>
+    <t>v71v7</t>
+  </si>
+  <si>
+    <t>nc46n2</t>
+  </si>
+  <si>
+    <t>賴玟靜</t>
+  </si>
+  <si>
+    <t>nc72n3</t>
+  </si>
+  <si>
+    <t>c43gw3</t>
+  </si>
+  <si>
+    <t>西區忠信國小</t>
+  </si>
+  <si>
+    <t>李宥昇</t>
+  </si>
+  <si>
+    <t>黃偵惠</t>
+  </si>
+  <si>
+    <t>v50s8</t>
+  </si>
+  <si>
+    <t>xb87p2</t>
+  </si>
+  <si>
+    <t>楊喬安</t>
+  </si>
+  <si>
+    <t>an98rs4</t>
+  </si>
+  <si>
+    <t>my61gw1</t>
+  </si>
+  <si>
+    <t>王思雅</t>
+  </si>
+  <si>
+    <t>pet83e3</t>
+  </si>
+  <si>
+    <t>m11d3</t>
+  </si>
+  <si>
+    <t>黃毓晴</t>
+  </si>
+  <si>
+    <t>j91d4</t>
+  </si>
+  <si>
+    <t>xb60et5</t>
   </si>
   <si>
     <t>沙鹿區公明國小</t>
   </si>
   <si>
-    <t>鄭予涵</t>
-  </si>
-  <si>
-    <t>柯慶輝</t>
-  </si>
-  <si>
-    <t>cd51d7</t>
-  </si>
-  <si>
-    <t>nc26h6</t>
+    <t>張妤蕎</t>
+  </si>
+  <si>
+    <t>謝映珠</t>
+  </si>
+  <si>
+    <t>d5g4</t>
+  </si>
+  <si>
+    <t>smy53x6</t>
+  </si>
+  <si>
+    <t>溫媄丞</t>
+  </si>
+  <si>
+    <t>陳政岳</t>
+  </si>
+  <si>
+    <t>fr93j7</t>
+  </si>
+  <si>
+    <t>bjk5t7</t>
   </si>
   <si>
     <t>沙鹿區文光國小</t>
   </si>
   <si>
-    <t>陳鵬翔</t>
-  </si>
-  <si>
-    <t>卓錫斌</t>
-  </si>
-  <si>
-    <t>bj25r4</t>
-  </si>
-  <si>
-    <t>xb12y4</t>
+    <t>蘇文儀</t>
+  </si>
+  <si>
+    <t>卓宛俞</t>
+  </si>
+  <si>
+    <t>rs49j1</t>
+  </si>
+  <si>
+    <t>et92b6</t>
+  </si>
+  <si>
+    <t>王溦妡</t>
+  </si>
+  <si>
+    <t>wh23v3</t>
+  </si>
+  <si>
+    <t>tv70tv9</t>
+  </si>
+  <si>
+    <t>林柏翰</t>
+  </si>
+  <si>
+    <t>my5m3</t>
+  </si>
+  <si>
+    <t>xb97g5</t>
   </si>
   <si>
     <t>沙鹿區鹿峰國小</t>
@@ -480,229 +459,211 @@
     <t>劉景銘</t>
   </si>
   <si>
-    <t>kfr65bj3</t>
-  </si>
-  <si>
-    <t>ncd61tv3</t>
-  </si>
-  <si>
-    <t>東區大智國小</t>
-  </si>
-  <si>
-    <t>劉佳諮</t>
-  </si>
-  <si>
-    <t>曹傑如</t>
-  </si>
-  <si>
-    <t>bj42k4</t>
-  </si>
-  <si>
-    <t>m5xb2</t>
-  </si>
-  <si>
-    <t>張霈俞</t>
-  </si>
-  <si>
-    <t>m16tv6</t>
-  </si>
-  <si>
-    <t>bj44h7</t>
+    <t>rsm22b3</t>
+  </si>
+  <si>
+    <t>et5n1</t>
+  </si>
+  <si>
+    <t>楊淨安</t>
+  </si>
+  <si>
+    <t>b59fr5</t>
+  </si>
+  <si>
+    <t>x74tv3</t>
+  </si>
+  <si>
+    <t>劉芷妍</t>
+  </si>
+  <si>
+    <t>hp12cd9</t>
+  </si>
+  <si>
+    <t>pet61d2</t>
+  </si>
+  <si>
+    <t>陳賢芮</t>
+  </si>
+  <si>
+    <t>wh53cd6</t>
+  </si>
+  <si>
+    <t>f18sm6</t>
+  </si>
+  <si>
+    <t>東勢區中山國小</t>
+  </si>
+  <si>
+    <t>胡沁</t>
+  </si>
+  <si>
+    <t>鎖睿儀</t>
+  </si>
+  <si>
+    <t>h39my1</t>
+  </si>
+  <si>
+    <t>dx62n9</t>
   </si>
   <si>
     <t>烏日區喀哩國小</t>
   </si>
   <si>
-    <t>陳楷承</t>
+    <t>張芳瑜</t>
   </si>
   <si>
     <t>張美娟</t>
   </si>
   <si>
-    <t>wh61gw7</t>
-  </si>
-  <si>
-    <t>yg48cd1</t>
+    <t>v28p7</t>
+  </si>
+  <si>
+    <t>whp61a7</t>
   </si>
   <si>
     <t>神岡區圳堵國小</t>
   </si>
   <si>
-    <t>林予涵</t>
+    <t>黃思綺</t>
   </si>
   <si>
     <t>蔡阜鋼</t>
   </si>
   <si>
-    <t>tv21j4</t>
-  </si>
-  <si>
-    <t>pe54rs4</t>
+    <t>b30fr5</t>
+  </si>
+  <si>
+    <t>tv43dx6</t>
+  </si>
+  <si>
+    <t>神岡區岸裡國小</t>
+  </si>
+  <si>
+    <t>魏妍聿</t>
+  </si>
+  <si>
+    <t>楊濬丞</t>
+  </si>
+  <si>
+    <t>r77kf2</t>
+  </si>
+  <si>
+    <t>whp30dx9</t>
+  </si>
+  <si>
+    <t>黃炫豪</t>
+  </si>
+  <si>
+    <t>xb32gw3</t>
+  </si>
+  <si>
+    <t>c3nc8</t>
+  </si>
+  <si>
+    <t>神岡區豐洲國小</t>
+  </si>
+  <si>
+    <t>張文繼</t>
+  </si>
+  <si>
+    <t>莊雅景</t>
+  </si>
+  <si>
+    <t>sm96jk7</t>
+  </si>
+  <si>
+    <t>d83yg7</t>
+  </si>
+  <si>
+    <t>林昱馨</t>
+  </si>
+  <si>
+    <t>dxb73n6</t>
+  </si>
+  <si>
+    <t>jkf53et6</t>
+  </si>
+  <si>
+    <t>清水區三田國小</t>
+  </si>
+  <si>
+    <t>林可婕</t>
+  </si>
+  <si>
+    <t>林堯慧</t>
+  </si>
+  <si>
+    <t>pe32h5</t>
+  </si>
+  <si>
+    <t>wh76bj8</t>
+  </si>
+  <si>
+    <t>黃芊瑜</t>
+  </si>
+  <si>
+    <t>et8kf6</t>
+  </si>
+  <si>
+    <t>a73w4</t>
   </si>
   <si>
     <t>龍井區龍山國小</t>
   </si>
   <si>
-    <t>陳筱薇</t>
+    <t>陳佳妤</t>
   </si>
   <si>
     <t>陳韻如</t>
   </si>
   <si>
-    <t>m69f6</t>
-  </si>
-  <si>
-    <t>pe11e6</t>
-  </si>
-  <si>
-    <t>吳恬萱</t>
-  </si>
-  <si>
-    <t>pet24rs3</t>
-  </si>
-  <si>
-    <t>sm34xb1</t>
-  </si>
-  <si>
-    <t>龍井區龍井國小</t>
-  </si>
-  <si>
-    <t>張廷愷</t>
-  </si>
-  <si>
-    <t>趙子如</t>
-  </si>
-  <si>
-    <t>s55jk5</t>
-  </si>
-  <si>
-    <t>cd96h6</t>
-  </si>
-  <si>
-    <t>陳沛沬</t>
-  </si>
-  <si>
-    <t>j46k1</t>
-  </si>
-  <si>
-    <t>n39p7</t>
-  </si>
-  <si>
-    <t>龍井區龍泉國小</t>
-  </si>
-  <si>
-    <t>洪詩婷</t>
-  </si>
-  <si>
-    <t>蔡金蓉</t>
-  </si>
-  <si>
-    <t>hpe59gw2</t>
-  </si>
-  <si>
-    <t>pe4s9</t>
-  </si>
-  <si>
-    <t>李庭禎</t>
-  </si>
-  <si>
-    <t>rsm35v6</t>
-  </si>
-  <si>
-    <t>myg92dx5</t>
-  </si>
-  <si>
-    <t>龍井區龍津國小</t>
-  </si>
-  <si>
-    <t>楊宇棠</t>
-  </si>
-  <si>
-    <t>楊惟程</t>
-  </si>
-  <si>
-    <t>j22hp6</t>
-  </si>
-  <si>
-    <t>tv63s7</t>
-  </si>
-  <si>
-    <t>紀佐燁</t>
-  </si>
-  <si>
-    <t>陳淑玲</t>
-  </si>
-  <si>
-    <t>dx15dx2</t>
-  </si>
-  <si>
-    <t>r29y3</t>
+    <t>nc30e9</t>
+  </si>
+  <si>
+    <t>bj98v2</t>
+  </si>
+  <si>
+    <t>余侑勳</t>
+  </si>
+  <si>
+    <t>w64jk7</t>
+  </si>
+  <si>
+    <t>frs55f2</t>
+  </si>
+  <si>
+    <t>陳孜詠</t>
+  </si>
+  <si>
+    <t>cd91c7</t>
+  </si>
+  <si>
+    <t>rsm29pe7</t>
   </si>
   <si>
     <t>豐原區翁子國小</t>
   </si>
   <si>
-    <t>林綺賓</t>
+    <t>陳仙鳳</t>
   </si>
   <si>
     <t>陳俊宏</t>
   </si>
   <si>
-    <t>g37kf4</t>
-  </si>
-  <si>
-    <t>v1my2</t>
-  </si>
-  <si>
-    <t>林翊萱</t>
-  </si>
-  <si>
-    <t>k34t3</t>
-  </si>
-  <si>
-    <t>frs46h7</t>
-  </si>
-  <si>
-    <t>游承璇</t>
-  </si>
-  <si>
-    <t>林惠敏</t>
-  </si>
-  <si>
-    <t>c98an2</t>
-  </si>
-  <si>
-    <t>hp77jk8</t>
-  </si>
-  <si>
-    <t>豐原區豐村國小</t>
-  </si>
-  <si>
-    <t>張秀慈</t>
-  </si>
-  <si>
-    <t>張銘芬</t>
-  </si>
-  <si>
-    <t>my21et5</t>
-  </si>
-  <si>
-    <t>jk59wh7</t>
-  </si>
-  <si>
-    <t>霧峰區復興國小</t>
-  </si>
-  <si>
-    <t>梁晏綾</t>
-  </si>
-  <si>
-    <t>許凱傑</t>
-  </si>
-  <si>
-    <t>jk55pe2</t>
-  </si>
-  <si>
-    <t>anc46wh5</t>
+    <t>xb2m1</t>
+  </si>
+  <si>
+    <t>frs52wh4</t>
+  </si>
+  <si>
+    <t>李亮辰</t>
+  </si>
+  <si>
+    <t>v19e1</t>
+  </si>
+  <si>
+    <t>xb85wh2</t>
   </si>
 </sst>
 </file>
@@ -1704,12 +1665,12 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1772,22 +1733,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1798,22 +1759,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1824,22 +1785,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1850,22 +1811,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1876,22 +1837,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1902,22 +1863,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1928,22 +1889,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1954,22 +1915,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1980,22 +1941,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2006,22 +1967,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2032,22 +1993,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2058,22 +2019,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2084,22 +2045,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2110,22 +2071,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2136,22 +2097,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2165,19 +2126,19 @@
         <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2188,22 +2149,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2214,22 +2175,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2240,22 +2201,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2266,22 +2227,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2292,22 +2253,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2318,22 +2279,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2344,22 +2305,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2370,22 +2331,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2396,22 +2357,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2422,22 +2383,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2448,22 +2409,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2474,22 +2435,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2500,22 +2461,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2526,22 +2487,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2552,22 +2513,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2578,22 +2539,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2604,22 +2565,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2630,22 +2591,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2656,22 +2617,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2682,22 +2643,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2708,22 +2669,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2734,22 +2695,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2760,22 +2721,22 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2786,22 +2747,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2812,22 +2773,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2838,22 +2799,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2864,22 +2825,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2890,22 +2851,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2916,22 +2877,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2942,22 +2903,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2968,22 +2929,22 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2994,22 +2955,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -3020,22 +2981,22 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
